--- a/descData.xlsx
+++ b/descData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahsanul Qalbi\Desktop\Kerja\Client\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahsanul Qalbi\Desktop\Kerja\Client\backup\GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDEFC37-4CE1-4AE0-82A1-0AA7743FF57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B46B99F-63C7-4528-8908-754501D13C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EACDF93-244F-4C56-BBAD-B158A16EE5C5}"/>
+    <workbookView xWindow="1392" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{4EACDF93-244F-4C56-BBAD-B158A16EE5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>HARTANTO</t>
   </si>
   <si>
-    <t xml:space="preserve">APT POLYGON FARMA </t>
-  </si>
-  <si>
     <t>APT BIMA</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>APT_PANEL3</t>
+  </si>
+  <si>
+    <t>APT POLYGON FARMA</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,25 +629,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4">
         <v>1.034</v>
@@ -806,82 +806,82 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="8">
         <v>0.874</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="8">
         <v>0.3412</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>0.93100000000000005</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="4">
         <v>1.2070000000000001</v>
@@ -890,30 +890,30 @@
         <v>804470</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="8">
         <v>0.47360000000000002</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
